--- a/leo-project-gpc.xlsx
+++ b/leo-project-gpc.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20415" windowHeight="7545" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19440" windowHeight="7545" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Catalog" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="RoadMap" sheetId="7" r:id="rId7"/>
     <sheet name="Spec" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="118">
   <si>
     <t>Technical Design</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Processing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Server Framework</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -404,6 +400,82 @@
   </si>
   <si>
     <t>Update Class Diagram v0.3 for vote</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server Director</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Director Module Core </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status &amp; StatusKeeper Link</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long Polling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status Notify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Vote</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>End Vote</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client Vote</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Vote UI Design </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client Long Polling -- Connection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Vote Event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>End Vote Event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refacor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server Director Module -- register project to project manager</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michael.Lee</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server Director Module -- router</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +483,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,8 +559,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,6 +651,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -633,7 +717,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,18 +793,18 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -741,6 +825,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -749,6 +857,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -775,7 +888,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -818,7 +931,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -861,7 +974,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -899,7 +1012,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1117,7 +1230,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1454,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1468,116 +1581,122 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5">
-      <c r="B4" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="7">
         <v>0</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="7">
         <v>2</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="7">
         <v>3</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="7">
         <v>3.1</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="7">
         <v>3.2</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="7"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="7"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="7"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="7">
         <v>1</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="7">
         <v>2</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B17:D17"/>
@@ -1586,12 +1705,6 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1728,7 +1841,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
@@ -1748,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+    <sheetView topLeftCell="B25" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1791,7 +1904,7 @@
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -1800,7 +1913,7 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
@@ -1821,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:K25"/>
+  <dimension ref="B3:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1847,7 +1960,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
@@ -1915,14 +2028,14 @@
         <v>41290</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
@@ -1937,14 +2050,14 @@
         <v>41290</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="11"/>
@@ -1959,7 +2072,7 @@
         <v>41290</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -1983,7 +2096,7 @@
         <v>41289</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -2015,10 +2128,10 @@
         <v>41</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -2033,14 +2146,14 @@
         <v>41289</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -2055,14 +2168,14 @@
         <v>41295</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -2077,14 +2190,14 @@
         <v>41295</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -2098,15 +2211,15 @@
       <c r="J14" s="15">
         <v>41296</v>
       </c>
-      <c r="K14" s="14" t="s">
-        <v>45</v>
+      <c r="K14" s="16" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -2121,7 +2234,7 @@
         <v>41295</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -2139,10 +2252,10 @@
     <row r="17" spans="2:11">
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -2157,14 +2270,14 @@
         <v>41290</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -2179,48 +2292,68 @@
         <v>41295</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
+      <c r="B19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="23">
+        <v>41290</v>
+      </c>
+      <c r="J19" s="23">
+        <v>41290</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="14"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="23">
+        <v>41290</v>
+      </c>
+      <c r="J20" s="23">
+        <v>41290</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="I21" s="23">
         <v>41290</v>
@@ -2229,95 +2362,333 @@
         <v>41290</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I22" s="23">
-        <v>41290</v>
+        <v>41295</v>
       </c>
       <c r="J22" s="23">
-        <v>41290</v>
+        <v>41295</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="23">
+        <v>41295</v>
+      </c>
+      <c r="J23" s="23">
+        <v>41295</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="23">
-        <v>41290</v>
-      </c>
-      <c r="J23" s="23">
-        <v>41290</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="23">
-        <v>41295</v>
-      </c>
-      <c r="J24" s="23">
-        <v>41295</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>48</v>
+      <c r="I24" s="37">
+        <v>41298</v>
+      </c>
+      <c r="J24" s="37">
+        <v>41299</v>
+      </c>
+      <c r="K24" s="39" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25" s="23">
-        <v>41295</v>
-      </c>
-      <c r="J25" s="23">
-        <v>41295</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>48</v>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="37">
+        <v>41298</v>
+      </c>
+      <c r="J25" s="37">
+        <v>41299</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="37">
+        <v>41299</v>
+      </c>
+      <c r="J26" s="37">
+        <v>41299</v>
+      </c>
+      <c r="K26" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="37">
+        <v>41298</v>
+      </c>
+      <c r="J27" s="37">
+        <v>41299</v>
+      </c>
+      <c r="K27" s="39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="37">
+        <v>41299</v>
+      </c>
+      <c r="J28" s="37">
+        <v>41299</v>
+      </c>
+      <c r="K28" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="37">
+        <v>41299</v>
+      </c>
+      <c r="J29" s="37">
+        <v>41299</v>
+      </c>
+      <c r="K29" s="39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="39"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="38">
+        <v>41302</v>
+      </c>
+      <c r="J31" s="38">
+        <v>41302</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="38">
+        <v>41302</v>
+      </c>
+      <c r="J32" s="38">
+        <v>41302</v>
+      </c>
+      <c r="K32" s="40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="38">
+        <v>41302</v>
+      </c>
+      <c r="J33" s="38">
+        <v>41302</v>
+      </c>
+      <c r="K33" s="40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="38">
+        <v>41302</v>
+      </c>
+      <c r="J34" s="38">
+        <v>41302</v>
+      </c>
+      <c r="K34" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="41"/>
+      <c r="C35" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" s="43">
+        <v>41303</v>
+      </c>
+      <c r="J35" s="43">
+        <v>41303</v>
+      </c>
+      <c r="K35" s="42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" s="43">
+        <v>41303</v>
+      </c>
+      <c r="J36" s="43">
+        <v>41303</v>
+      </c>
+      <c r="K36" s="42" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2443,93 +2814,93 @@
     </row>
     <row r="6" spans="2:30">
       <c r="C6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="W6" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="Z6" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="AA6" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="AB6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="T6" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="U6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="V6" s="18" t="s">
+      <c r="AC6" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="W6" s="20" t="s">
+      <c r="AD6" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="X6" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y6" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z6" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA6" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC6" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD6" s="20" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:30">
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2537,7 +2908,7 @@
     </row>
     <row r="8" spans="2:30">
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2545,7 +2916,7 @@
     </row>
     <row r="9" spans="2:30">
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2553,7 +2924,7 @@
     </row>
     <row r="10" spans="2:30">
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -2561,7 +2932,7 @@
     </row>
     <row r="11" spans="2:30">
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T11" s="3"/>
       <c r="W11" s="3"/>
@@ -2571,15 +2942,15 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
@@ -2592,7 +2963,7 @@
     </row>
     <row r="24" spans="2:11">
       <c r="C24" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
@@ -2605,7 +2976,7 @@
     </row>
     <row r="25" spans="2:11">
       <c r="C25" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -2618,10 +2989,10 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
